--- a/CDS/RIT_CDS_details.xlsx
+++ b/CDS/RIT_CDS_details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>File</t>
   </si>
@@ -24,6 +24,12 @@
   </si>
   <si>
     <t>Power:Col</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
   <si>
     <t>CAISSONHISTORY to SEPT 03.xlsx</t>
@@ -74,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -155,10 +162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -178,49 +185,79 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
